--- a/biology/Neurosciences/Message_nerveux/Message_nerveux.xlsx
+++ b/biology/Neurosciences/Message_nerveux/Message_nerveux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les messages nerveux sont des signaux chimiques ou électriques qui sont transmis par un ou plusieurs neurones face à un stimulus externe. Les signaux sont transmis par moyen du potentiel d'action, une dépolarisation et repolarisation de la membrane d'un neurone.
 </t>
@@ -511,7 +523,9 @@
           <t>Propriétés électriques d'un neurone</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane d'un neurone possède une polarité naturelle qu'on nomme potentiel de repos. 
 Lorsqu'aucune stimulation n'est appliquée, la membrane est chargée positivement, alors que l'axoplasme (cytoplasme) est lui, chargé négativement.
@@ -547,7 +561,9 @@
           <t>Le message nerveux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le message nerveux est codé en fréquence de potentiels d'action (Pa). On remarque que le nombre de potentiels d'action varie en fonction de l'intensité: plus l'information à transmettre est intense, plus la fréquence de potentiels d'action sera importante. C'est-à-dire que l'information transmise sera toujours de même intensité (en ampères) mais plus fréquemment diffusée dans un même temps donné (souvent 1ms). Le message nerveux est aussi codé dans le temps : si on prolonge une stimulation électrique qui crée au départ un seul potentiel d'action, on constate au bout d'un certain temps qu'un second s'est formé. 
 Les schémas d'arcs réflexes montrent qu'à certains moments les messages nerveux doivent passer des synapses reliant deux neurones.
@@ -580,7 +596,9 @@
           <t>La fente synaptique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arrivée d'un potentiel d'action à la terminaison d'une fibre nerveuse (dite présynaptique), entraîne le phénomène d'exocytose des molécules neurotransmettrices (c’est-à-dire que les neurotransmetteurs traversent la membrane présynaptique pour se rendre dans la fente synaptique). Les neurotransmetteurs se fixent alors aux récepteurs qui leur sont spécifiques sur la membrane postsynaptique.  
 Deux cas de figure sont alors possibles :
@@ -621,7 +639,9 @@
           <t>L'intégration nerveuse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un neurone est connecté à plusieurs dizaines de milliers d'autres neurones, il est donc inimaginable de traiter individuellement chaque potentiel postsynaptique. Le neurone effectue donc une sommation algébrique des potentiels et c'est ce phénomène qu'on appelle intégration nerveuse. Cette sommation aboutit donc soit à une hyperpolarisation : dans ce cas le neurone ne réagit pas; soit à une dépolarisation : il y a alors création d'un potentiel d'action si l'intensité seuil est atteinte.
  Portail des neurosciences   Portail de la médecine                    </t>
